--- a/team_specific_matrix/LSU_B.xlsx
+++ b/team_specific_matrix/LSU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1764705882352941</v>
+        <v>0.1747967479674797</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.5894308943089431</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01470588235294118</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1127450980392157</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1127450980392157</v>
+        <v>0.1056910569105691</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04347826086956522</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02898550724637681</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7826086956521739</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1449275362318841</v>
+        <v>0.1585365853658537</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1176470588235294</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1764705882352941</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.049079754601227</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006134969325153374</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06134969325153374</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2331288343558282</v>
+        <v>0.2227979274611399</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01226993865030675</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1411042944785276</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="R6">
-        <v>0.08588957055214724</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="S6">
-        <v>0.4110429447852761</v>
+        <v>0.4093264248704663</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07272727272727272</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01818181818181818</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E7">
-        <v>0.006060606060606061</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="F7">
-        <v>0.103030303030303</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1333333333333333</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01212121212121212</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.103030303030303</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="R7">
-        <v>0.07272727272727272</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S7">
-        <v>0.4787878787878788</v>
+        <v>0.4975369458128079</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1056105610561056</v>
+        <v>0.1084010840108401</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0231023102310231</v>
+        <v>0.02168021680216802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.066006600660066</v>
+        <v>0.05962059620596206</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.132013201320132</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0033003300330033</v>
+        <v>0.005420054200542005</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1749174917491749</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="R8">
-        <v>0.07260726072607261</v>
+        <v>0.07859078590785908</v>
       </c>
       <c r="S8">
-        <v>0.4224422442244224</v>
+        <v>0.4254742547425474</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09615384615384616</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01923076923076923</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="E9">
-        <v>0.00641025641025641</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="F9">
-        <v>0.09615384615384616</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1538461538461539</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01282051282051282</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1730769230769231</v>
+        <v>0.1657754010695187</v>
       </c>
       <c r="R9">
-        <v>0.07692307692307693</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="S9">
-        <v>0.3653846153846154</v>
+        <v>0.3796791443850268</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1022727272727273</v>
+        <v>0.1053089643167972</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02066115702479339</v>
+        <v>0.01827676240208877</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05785123966942149</v>
+        <v>0.0557006092254134</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.143595041322314</v>
+        <v>0.1453437771975631</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02169421487603306</v>
+        <v>0.02001740644038294</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2004132231404959</v>
+        <v>0.1940818102697998</v>
       </c>
       <c r="R10">
-        <v>0.1002066115702479</v>
+        <v>0.1018276762402089</v>
       </c>
       <c r="S10">
-        <v>0.3533057851239669</v>
+        <v>0.3594429939077459</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1680672268907563</v>
+        <v>0.1848184818481848</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07983193277310924</v>
+        <v>0.07590759075907591</v>
       </c>
       <c r="K11">
-        <v>0.2016806722689076</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L11">
-        <v>0.5378151260504201</v>
+        <v>0.5082508250825083</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01260504201680672</v>
+        <v>0.0132013201320132</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7480916030534351</v>
+        <v>0.7452229299363057</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2061068702290076</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="K12">
-        <v>0.02290076335877863</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02290076335877863</v>
+        <v>0.01910828025477707</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7317073170731707</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2439024390243902</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015625</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.15625</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="I15">
-        <v>0.0703125</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K15">
-        <v>0.1015625</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0234375</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0234375</v>
+        <v>0.04516129032258064</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.234375</v>
+        <v>0.232258064516129</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006578947368421052</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1578947368421053</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="I16">
-        <v>0.08552631578947369</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="K16">
-        <v>0.07236842105263158</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01973684210526316</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03289473684210526</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1348314606741573</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01834862385321101</v>
+        <v>0.01861702127659574</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1559633027522936</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="I17">
-        <v>0.1009174311926606</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J17">
-        <v>0.4128440366972477</v>
+        <v>0.4095744680851064</v>
       </c>
       <c r="K17">
-        <v>0.1039755351681957</v>
+        <v>0.1037234042553191</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01834862385321101</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04892966360856269</v>
+        <v>0.04521276595744681</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1406727828746177</v>
+        <v>0.1515957446808511</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02515723270440252</v>
+        <v>0.03125</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1572327044025157</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.1069182389937107</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J18">
-        <v>0.4213836477987422</v>
+        <v>0.421875</v>
       </c>
       <c r="K18">
-        <v>0.1006289308176101</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02515723270440252</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05660377358490566</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1069182389937107</v>
+        <v>0.09895833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01535087719298246</v>
+        <v>0.01528776978417266</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2028508771929824</v>
+        <v>0.2068345323741007</v>
       </c>
       <c r="I19">
-        <v>0.09210526315789473</v>
+        <v>0.09172661870503597</v>
       </c>
       <c r="J19">
-        <v>0.3607456140350877</v>
+        <v>0.3606115107913669</v>
       </c>
       <c r="K19">
-        <v>0.1304824561403509</v>
+        <v>0.1357913669064748</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02850877192982456</v>
+        <v>0.02607913669064748</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05701754385964912</v>
+        <v>0.05485611510791367</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1129385964912281</v>
+        <v>0.1088129496402878</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/LSU_B.xlsx
+++ b/team_specific_matrix/LSU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1747967479674797</v>
+        <v>0.1824561403508772</v>
       </c>
       <c r="C2">
-        <v>0.5894308943089431</v>
+        <v>0.5824561403508772</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02032520325203252</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1097560975609756</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1056910569105691</v>
+        <v>0.09473684210526316</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03658536585365853</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7804878048780488</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1585365853658537</v>
+        <v>0.1559139784946237</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7105263157894737</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1842105263157895</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05181347150259067</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005181347150259068</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07772020725388601</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2227979274611399</v>
+        <v>0.2149532710280374</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01036269430051814</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1295336787564767</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="R6">
-        <v>0.09326424870466321</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="S6">
-        <v>0.4093264248704663</v>
+        <v>0.4158878504672897</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06896551724137931</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01970443349753695</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="E7">
-        <v>0.004926108374384237</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F7">
-        <v>0.09852216748768473</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1231527093596059</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009852216748768473</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1083743842364532</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="R7">
-        <v>0.06896551724137931</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="S7">
-        <v>0.4975369458128079</v>
+        <v>0.5021834061135371</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1084010840108401</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02168021680216802</v>
+        <v>0.0267639902676399</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05962059620596206</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1300813008130081</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005420054200542005</v>
+        <v>0.004866180048661801</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1707317073170732</v>
+        <v>0.1654501216545012</v>
       </c>
       <c r="R8">
-        <v>0.07859078590785908</v>
+        <v>0.0827250608272506</v>
       </c>
       <c r="S8">
-        <v>0.4254742547425474</v>
+        <v>0.4257907542579075</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0855614973262032</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0213903743315508</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E9">
-        <v>0.0053475935828877</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F9">
-        <v>0.09090909090909091</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1550802139037433</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0160427807486631</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1657754010695187</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="R9">
-        <v>0.08021390374331551</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="S9">
-        <v>0.3796791443850268</v>
+        <v>0.3701923076923077</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053089643167972</v>
+        <v>0.1126651126651127</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01827676240208877</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0557006092254134</v>
+        <v>0.05439005439005439</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1453437771975631</v>
+        <v>0.1460761460761461</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02001740644038294</v>
+        <v>0.01864801864801865</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1940818102697998</v>
+        <v>0.1989121989121989</v>
       </c>
       <c r="R10">
-        <v>0.1018276762402089</v>
+        <v>0.09557109557109557</v>
       </c>
       <c r="S10">
-        <v>0.3594429939077459</v>
+        <v>0.3566433566433567</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1848184818481848</v>
+        <v>0.1761194029850746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07590759075907591</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="K11">
-        <v>0.2178217821782178</v>
+        <v>0.2208955223880597</v>
       </c>
       <c r="L11">
-        <v>0.5082508250825083</v>
+        <v>0.5104477611940299</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0132013201320132</v>
+        <v>0.01791044776119403</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7452229299363057</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2101910828025478</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="K12">
-        <v>0.01910828025477707</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="L12">
-        <v>0.006369426751592357</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01910828025477707</v>
+        <v>0.01714285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.723404255319149</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2553191489361702</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02127659574468085</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01290322580645161</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1548387096774194</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="I15">
-        <v>0.07741935483870968</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="J15">
-        <v>0.3548387096774194</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="K15">
-        <v>0.09677419354838709</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02580645161290323</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04516129032258064</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.232258064516129</v>
+        <v>0.2471264367816092</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005617977528089887</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1573033707865168</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="I16">
-        <v>0.07865168539325842</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="J16">
-        <v>0.4606741573033708</v>
+        <v>0.473170731707317</v>
       </c>
       <c r="K16">
-        <v>0.0898876404494382</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02808988764044944</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0449438202247191</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1348314606741573</v>
+        <v>0.1365853658536585</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01861702127659574</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.148936170212766</v>
+        <v>0.1540284360189574</v>
       </c>
       <c r="I17">
-        <v>0.1063829787234043</v>
+        <v>0.09715639810426541</v>
       </c>
       <c r="J17">
-        <v>0.4095744680851064</v>
+        <v>0.4194312796208531</v>
       </c>
       <c r="K17">
-        <v>0.1037234042553191</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01595744680851064</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04521276595744681</v>
+        <v>0.04502369668246445</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1515957446808511</v>
+        <v>0.1469194312796208</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03125</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="I18">
-        <v>0.1041666666666667</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="J18">
-        <v>0.421875</v>
+        <v>0.4123222748815166</v>
       </c>
       <c r="K18">
-        <v>0.09895833333333333</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02083333333333333</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05729166666666666</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09895833333333333</v>
+        <v>0.0995260663507109</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01528776978417266</v>
+        <v>0.01526104417670683</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2068345323741007</v>
+        <v>0.2040160642570281</v>
       </c>
       <c r="I19">
-        <v>0.09172661870503597</v>
+        <v>0.09397590361445783</v>
       </c>
       <c r="J19">
-        <v>0.3606115107913669</v>
+        <v>0.3622489959839357</v>
       </c>
       <c r="K19">
-        <v>0.1357913669064748</v>
+        <v>0.1317269076305221</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02607913669064748</v>
+        <v>0.02650602409638554</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05485611510791367</v>
+        <v>0.05783132530120482</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1088129496402878</v>
+        <v>0.108433734939759</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/LSU_B.xlsx
+++ b/team_specific_matrix/LSU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1824561403508772</v>
+        <v>0.1782178217821782</v>
       </c>
       <c r="C2">
-        <v>0.5824561403508772</v>
+        <v>0.5907590759075908</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01754385964912281</v>
+        <v>0.0165016501650165</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1228070175438596</v>
+        <v>0.1221122112211221</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09473684210526316</v>
+        <v>0.0924092409240924</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C3">
-        <v>0.03763440860215054</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03225806451612903</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7741935483870968</v>
+        <v>0.7788944723618091</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1559139784946237</v>
+        <v>0.1507537688442211</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7380952380952381</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.1590909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06074766355140187</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004672897196261682</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07476635514018691</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2149532710280374</v>
+        <v>0.2136363636363636</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01869158878504673</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1214953271028037</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="R6">
-        <v>0.08878504672897196</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S6">
-        <v>0.4158878504672897</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06550218340611354</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01746724890829694</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="E7">
-        <v>0.004366812227074236</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="F7">
-        <v>0.1004366812227074</v>
+        <v>0.0970464135021097</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1179039301310044</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008733624454148471</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1048034934497817</v>
+        <v>0.1181434599156118</v>
       </c>
       <c r="R7">
-        <v>0.07860262008733625</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S7">
-        <v>0.5021834061135371</v>
+        <v>0.4978902953586498</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09975669099756691</v>
+        <v>0.1013824884792627</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0267639902676399</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0583941605839416</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1362530413625304</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.004866180048661801</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1654501216545012</v>
+        <v>0.1658986175115207</v>
       </c>
       <c r="R8">
-        <v>0.0827250608272506</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="S8">
-        <v>0.4257907542579075</v>
+        <v>0.4331797235023042</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08173076923076923</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01923076923076923</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="E9">
-        <v>0.004807692307692308</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="F9">
-        <v>0.09134615384615384</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1538461538461539</v>
+        <v>0.1502347417840376</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01442307692307692</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1778846153846154</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="R9">
-        <v>0.08653846153846154</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="S9">
-        <v>0.3701923076923077</v>
+        <v>0.3615023474178404</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1126651126651127</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0170940170940171</v>
+        <v>0.01729323308270677</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05439005439005439</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1460761460761461</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01864801864801865</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1989121989121989</v>
+        <v>0.2022556390977444</v>
       </c>
       <c r="R10">
-        <v>0.09557109557109557</v>
+        <v>0.09323308270676692</v>
       </c>
       <c r="S10">
-        <v>0.3566433566433567</v>
+        <v>0.3548872180451128</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1761194029850746</v>
+        <v>0.1685714285714286</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07462686567164178</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>0.2208955223880597</v>
+        <v>0.2171428571428571</v>
       </c>
       <c r="L11">
-        <v>0.5104477611940299</v>
+        <v>0.5171428571428571</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01791044776119403</v>
+        <v>0.01714285714285714</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7657142857142857</v>
+        <v>0.7663043478260869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1942857142857143</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="K12">
-        <v>0.01714285714285714</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="L12">
-        <v>0.005714285714285714</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01714285714285714</v>
+        <v>0.01630434782608696</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7407407407407407</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2407407407407407</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01149425287356322</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1551724137931035</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="I15">
-        <v>0.07471264367816093</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="J15">
-        <v>0.3448275862068966</v>
+        <v>0.3370165745856354</v>
       </c>
       <c r="K15">
-        <v>0.09770114942528736</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02298850574712644</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04597701149425287</v>
+        <v>0.04972375690607735</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2471264367816092</v>
+        <v>0.2541436464088398</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.004878048780487805</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1512195121951219</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="I16">
-        <v>0.07804878048780488</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="J16">
-        <v>0.473170731707317</v>
+        <v>0.4611872146118721</v>
       </c>
       <c r="K16">
-        <v>0.07804878048780488</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02926829268292683</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04878048780487805</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1365853658536585</v>
+        <v>0.1415525114155251</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01658767772511848</v>
+        <v>0.01569506726457399</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1540284360189574</v>
+        <v>0.1614349775784753</v>
       </c>
       <c r="I17">
-        <v>0.09715639810426541</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="J17">
-        <v>0.4194312796208531</v>
+        <v>0.4170403587443946</v>
       </c>
       <c r="K17">
-        <v>0.1042654028436019</v>
+        <v>0.1053811659192825</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01658767772511848</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04502369668246445</v>
+        <v>0.04708520179372197</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1469194312796208</v>
+        <v>0.1412556053811659</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02843601895734597</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1658767772511848</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.1042654028436019</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="J18">
-        <v>0.4123222748815166</v>
+        <v>0.412037037037037</v>
       </c>
       <c r="K18">
-        <v>0.1137440758293839</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02369668246445497</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05213270142180094</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0995260663507109</v>
+        <v>0.1018518518518518</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01526104417670683</v>
+        <v>0.01551590380139643</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2040160642570281</v>
+        <v>0.2048099301784329</v>
       </c>
       <c r="I19">
-        <v>0.09397590361445783</v>
+        <v>0.09154383242823895</v>
       </c>
       <c r="J19">
-        <v>0.3622489959839357</v>
+        <v>0.3638479441427463</v>
       </c>
       <c r="K19">
-        <v>0.1317269076305221</v>
+        <v>0.1334367726920093</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02650602409638554</v>
+        <v>0.02560124127230411</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05783132530120482</v>
+        <v>0.05663304887509697</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.108433734939759</v>
+        <v>0.108611326609775</v>
       </c>
     </row>
   </sheetData>
